--- a/output_merged_excel.xlsx
+++ b/output_merged_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>First Name</t>
   </si>
@@ -34,6 +34,66 @@
     <t>Source_Excel_FileName</t>
   </si>
   <si>
+    <t>Zoya</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>zoya@gmail.com</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>all_excels_dir/sub_dir1/user_list4.xls</t>
+  </si>
+  <si>
+    <t>Macie</t>
+  </si>
+  <si>
+    <t>Lawson</t>
+  </si>
+  <si>
+    <t>macie@gmail.com</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Oneal</t>
+  </si>
+  <si>
+    <t>sarah@gmail.com</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Handley</t>
+  </si>
+  <si>
+    <t>carol@gmail.com</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -91,6 +151,54 @@
     <t>Dallas</t>
   </si>
   <si>
+    <t>Macy</t>
+  </si>
+  <si>
+    <t>Barker</t>
+  </si>
+  <si>
+    <t>macy@gmail.com</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Casper</t>
+  </si>
+  <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>casper@gmail.com</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Aleena</t>
+  </si>
+  <si>
+    <t>Cobb</t>
+  </si>
+  <si>
+    <t>aleena@gmail.com</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>murray@gmail.com</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
     <t>Raghu</t>
   </si>
   <si>
@@ -118,9 +226,6 @@
     <t>emma@gmail.com</t>
   </si>
   <si>
-    <t>Seattle</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -170,9 +275,6 @@
   </si>
   <si>
     <t>doug@gmail.com</t>
-  </si>
-  <si>
-    <t>Chicago</t>
   </si>
   <si>
     <t>Oliver</t>
@@ -537,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -625,19 +727,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -645,102 +747,102 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -757,10 +859,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -774,33 +876,193 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
